--- a/src/main/resources/excels/BuildingLimitModel.xlsx
+++ b/src/main/resources/excels/BuildingLimitModel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8130"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="118">
   <si>
     <t>baseId</t>
   </si>
@@ -43,7 +43,7 @@
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>列1</t>
@@ -155,135 +155,135 @@
   </si>
   <si>
     <t>古虫墓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>机器人船坞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工业大师营房</t>
   </si>
   <si>
     <t>工业大师营房</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>末日发射井</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>怒火</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>天网</t>
   </si>
   <si>
     <t>嗜血斥候</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>太阳水采集器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>太阳水储藏罐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>印钞机</t>
   </si>
   <si>
     <t>练兵厂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>研究所</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>军备中心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>离子炮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地对空导弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>狙击手</t>
   </si>
   <si>
     <t>激光炮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铸币厂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>太阳水熔炼厂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>太阳水储藏罐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铁血狙杀者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铁血狙杀者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铁血狙杀者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高效双管炮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地对空鸭嘴炮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地对空鸭嘴炮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铁渣炮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>聚能电束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>聚能电束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>烈焰喷射器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>烈焰喷射器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邪能电塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邪能电塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>太阳水转化虫</t>
@@ -317,19 +317,19 @@
   </si>
   <si>
     <t>对空弹射炸弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对空弹射炸弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对空飞刃炸弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对空震天雷虫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对空穿甲弹</t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>泰坦兵工厂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英雄座</t>
@@ -355,23 +355,23 @@
   </si>
   <si>
     <t>鲜血祭台</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>浓液池</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>反物质炸弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鲜血祭台</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英雄座</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>浓液池</t>
@@ -381,67 +381,67 @@
   </si>
   <si>
     <t>远征队</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>远征队</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>远征队</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开采舰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开采舰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开采舰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>冒险号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采舰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,30 +534,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,13 +563,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,16 +578,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,19 +596,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -697,7 +703,15 @@
       <alignment horizontal="left" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -729,19 +743,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:E933" tableType="xml" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:E933" tableType="xml" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" connectionId="1">
   <autoFilter ref="B2:E933"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="baseId" name="baseId" dataDxfId="3">
+    <tableColumn id="1" uniqueName="baseId" name="baseId" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/ArrayOfBuildingLimitModel/BuildingLimitModel/baseId" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="buildingBaseId" name="buildingBaseId" dataDxfId="2">
+    <tableColumn id="2" uniqueName="buildingBaseId" name="buildingBaseId" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/ArrayOfBuildingLimitModel/BuildingLimitModel/buildingBaseId" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="buildingCount" name="buildingCount" dataDxfId="1">
+    <tableColumn id="3" uniqueName="buildingCount" name="buildingCount" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/ArrayOfBuildingLimitModel/BuildingLimitModel/buildingCount" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="4" name="列1" dataDxfId="0"/>
+    <tableColumn id="4" uniqueName="4" name="列1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1013,11 +1027,11 @@
   <dimension ref="A1:E933"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A933"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="7"/>
     <col min="3" max="3" width="16.625" style="7" bestFit="1" customWidth="1"/>
@@ -1028,7 +1042,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
@@ -1045,7 +1059,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1062,16 +1076,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1">
@@ -16388,7 +16402,7 @@
         <v>1</v>
       </c>
       <c r="E904" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="905" spans="1:5">
@@ -16453,7 +16467,7 @@
         <v>15201</v>
       </c>
       <c r="D908" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E908" s="14" t="s">
         <v>111</v>
@@ -16470,7 +16484,7 @@
         <v>15201</v>
       </c>
       <c r="D909" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E909" s="14" t="s">
         <v>111</v>
@@ -16487,7 +16501,7 @@
         <v>15201</v>
       </c>
       <c r="D910" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E910" s="14" t="s">
         <v>111</v>
@@ -16504,7 +16518,7 @@
         <v>15201</v>
       </c>
       <c r="D911" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E911" s="14" t="s">
         <v>111</v>
@@ -16521,7 +16535,7 @@
         <v>15201</v>
       </c>
       <c r="D912" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E912" s="14" t="s">
         <v>111</v>
@@ -16538,7 +16552,7 @@
         <v>15201</v>
       </c>
       <c r="D913" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E913" s="14" t="s">
         <v>111</v>
@@ -16558,7 +16572,7 @@
         <v>1</v>
       </c>
       <c r="E914" s="14" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="915" spans="1:5">
@@ -16623,7 +16637,7 @@
         <v>25201</v>
       </c>
       <c r="D918" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E918" s="14" t="s">
         <v>106</v>
@@ -16640,7 +16654,7 @@
         <v>25201</v>
       </c>
       <c r="D919" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E919" s="14" t="s">
         <v>106</v>
@@ -16657,7 +16671,7 @@
         <v>25201</v>
       </c>
       <c r="D920" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E920" s="14" t="s">
         <v>106</v>
@@ -16674,7 +16688,7 @@
         <v>25201</v>
       </c>
       <c r="D921" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E921" s="14" t="s">
         <v>105</v>
@@ -16691,7 +16705,7 @@
         <v>25201</v>
       </c>
       <c r="D922" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E922" s="14" t="s">
         <v>105</v>
@@ -16708,7 +16722,7 @@
         <v>25201</v>
       </c>
       <c r="D923" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E923" s="14" t="s">
         <v>107</v>
@@ -16728,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="E924" s="14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="925" spans="1:5">
@@ -16793,7 +16807,7 @@
         <v>35201</v>
       </c>
       <c r="D928" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E928" s="14" t="s">
         <v>109</v>
@@ -16810,7 +16824,7 @@
         <v>35201</v>
       </c>
       <c r="D929" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E929" s="14" t="s">
         <v>110</v>
@@ -16827,7 +16841,7 @@
         <v>35201</v>
       </c>
       <c r="D930" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E930" s="14" t="s">
         <v>108</v>
@@ -16844,7 +16858,7 @@
         <v>35201</v>
       </c>
       <c r="D931" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E931" s="14" t="s">
         <v>110</v>
@@ -16861,7 +16875,7 @@
         <v>35201</v>
       </c>
       <c r="D932" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E932" s="14" t="s">
         <v>108</v>
@@ -16878,14 +16892,17 @@
         <v>35201</v>
       </c>
       <c r="D933" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E933" s="14" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B924:B933">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/src/main/resources/excels/BuildingLimitModel.xlsx
+++ b/src/main/resources/excels/BuildingLimitModel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目1\核心资源\策划需求\进度\超链接文件\功能表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目1\SVN\数据表\程序表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="190">
   <si>
     <t>baseId</t>
   </si>
@@ -457,6 +457,204 @@
     <t>反物质炸弹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>数字板0</t>
+  </si>
+  <si>
+    <t>数字板1</t>
+  </si>
+  <si>
+    <t>数字板2</t>
+  </si>
+  <si>
+    <t>数字板3</t>
+  </si>
+  <si>
+    <t>数字板4</t>
+  </si>
+  <si>
+    <t>数字板5</t>
+  </si>
+  <si>
+    <t>数字板6</t>
+  </si>
+  <si>
+    <t>数字板7</t>
+  </si>
+  <si>
+    <t>数字板8</t>
+  </si>
+  <si>
+    <t>数字板9</t>
+  </si>
+  <si>
+    <t>字母版A</t>
+  </si>
+  <si>
+    <t>字母版B</t>
+  </si>
+  <si>
+    <t>字母版C</t>
+  </si>
+  <si>
+    <t>字母版D</t>
+  </si>
+  <si>
+    <t>字母版E</t>
+  </si>
+  <si>
+    <t>字母版F</t>
+  </si>
+  <si>
+    <t>字母版G</t>
+  </si>
+  <si>
+    <t>字母版H</t>
+  </si>
+  <si>
+    <t>字母版I</t>
+  </si>
+  <si>
+    <t>字母版J</t>
+  </si>
+  <si>
+    <t>字母版K</t>
+  </si>
+  <si>
+    <t>字母版L</t>
+  </si>
+  <si>
+    <t>字母版M</t>
+  </si>
+  <si>
+    <t>字母版N</t>
+  </si>
+  <si>
+    <t>字母版O</t>
+  </si>
+  <si>
+    <t>字母版P</t>
+  </si>
+  <si>
+    <t>字母版Q</t>
+  </si>
+  <si>
+    <t>字母版R</t>
+  </si>
+  <si>
+    <t>字母版S</t>
+  </si>
+  <si>
+    <t>字母版T</t>
+  </si>
+  <si>
+    <t>字母版U</t>
+  </si>
+  <si>
+    <t>字母版V</t>
+  </si>
+  <si>
+    <t>字母版W</t>
+  </si>
+  <si>
+    <t>字母版X</t>
+  </si>
+  <si>
+    <t>字母版Y</t>
+  </si>
+  <si>
+    <t>字母版Z</t>
+  </si>
+  <si>
+    <t>字母版a</t>
+  </si>
+  <si>
+    <t>字母版b</t>
+  </si>
+  <si>
+    <t>字母版c</t>
+  </si>
+  <si>
+    <t>字母版d</t>
+  </si>
+  <si>
+    <t>字母版e</t>
+  </si>
+  <si>
+    <t>字母版f</t>
+  </si>
+  <si>
+    <t>字母版g</t>
+  </si>
+  <si>
+    <t>字母版h</t>
+  </si>
+  <si>
+    <t>字母版i</t>
+  </si>
+  <si>
+    <t>字母版j</t>
+  </si>
+  <si>
+    <t>字母版k</t>
+  </si>
+  <si>
+    <t>字母版l</t>
+  </si>
+  <si>
+    <t>字母版m</t>
+  </si>
+  <si>
+    <t>字母版n</t>
+  </si>
+  <si>
+    <t>字母版o</t>
+  </si>
+  <si>
+    <t>字母版p</t>
+  </si>
+  <si>
+    <t>字母版q</t>
+  </si>
+  <si>
+    <t>字母版r</t>
+  </si>
+  <si>
+    <t>字母版s</t>
+  </si>
+  <si>
+    <t>字母版t</t>
+  </si>
+  <si>
+    <t>字母版u</t>
+  </si>
+  <si>
+    <t>字母版v</t>
+  </si>
+  <si>
+    <t>字母版w</t>
+  </si>
+  <si>
+    <t>字母版x</t>
+  </si>
+  <si>
+    <t>字母版y</t>
+  </si>
+  <si>
+    <t>字母版z</t>
+  </si>
+  <si>
+    <t>人类国旗</t>
+  </si>
+  <si>
+    <t>俄罗斯国旗</t>
+  </si>
+  <si>
+    <t>联合国国旗</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
 </sst>
 </file>
 
@@ -539,7 +737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -562,6 +760,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -569,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -626,6 +872,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -970,15 +1231,15 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="ArrayOfBuildingLimitModel_映射" RootElement="ArrayOfBuildingLimitModel" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+  <Map ID="1" Name="ArrayOfBuildingLimitModel" RootElement="ArrayOfBuildingLimitModel" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B3:I903" tableType="xml" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" connectionId="1">
-  <autoFilter ref="B3:I903"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B3:I969" tableType="xml" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" connectionId="1">
+  <autoFilter ref="B3:I969"/>
   <tableColumns count="8">
     <tableColumn id="1" uniqueName="baseId" name="baseId" dataDxfId="7">
       <xmlColumnPr mapId="1" xpath="/ArrayOfBuildingLimitModel/BuildingLimitModel/baseId" xmlDataType="integer"/>
@@ -1262,14 +1523,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I903"/>
+  <dimension ref="A1:I969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L130" sqref="L130"/>
+      <pane ySplit="1" topLeftCell="A942" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D975" sqref="D975"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.625" style="1" bestFit="1" customWidth="1"/>
@@ -1589,7 +1850,7 @@
         <v>10301</v>
       </c>
       <c r="D15" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -2702,7 +2963,7 @@
         <v>13901</v>
       </c>
       <c r="D68" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>59</v>
@@ -6209,7 +6470,7 @@
         <v>20301</v>
       </c>
       <c r="D235" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>20</v>
@@ -10829,7 +11090,7 @@
         <v>30301</v>
       </c>
       <c r="D455" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>30</v>
@@ -20246,6 +20507,1392 @@
       <c r="G903" s="3"/>
       <c r="H903" s="3"/>
       <c r="I903" s="3"/>
+    </row>
+    <row r="904" spans="1:9">
+      <c r="A904" s="6">
+        <v>931</v>
+      </c>
+      <c r="B904" s="21">
+        <v>0</v>
+      </c>
+      <c r="C904" s="22">
+        <v>75001</v>
+      </c>
+      <c r="D904" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E904" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F904" s="23"/>
+      <c r="G904" s="23"/>
+      <c r="H904" s="23"/>
+      <c r="I904" s="24"/>
+    </row>
+    <row r="905" spans="1:9">
+      <c r="A905" s="3">
+        <v>932</v>
+      </c>
+      <c r="B905" s="21">
+        <v>0</v>
+      </c>
+      <c r="C905" s="5">
+        <v>75002</v>
+      </c>
+      <c r="D905" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E905" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F905" s="3"/>
+      <c r="G905" s="3"/>
+      <c r="H905" s="3"/>
+      <c r="I905" s="20"/>
+    </row>
+    <row r="906" spans="1:9">
+      <c r="A906" s="6">
+        <v>933</v>
+      </c>
+      <c r="B906" s="21">
+        <v>0</v>
+      </c>
+      <c r="C906" s="5">
+        <v>75003</v>
+      </c>
+      <c r="D906" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E906" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F906" s="3"/>
+      <c r="G906" s="3"/>
+      <c r="H906" s="3"/>
+      <c r="I906" s="20"/>
+    </row>
+    <row r="907" spans="1:9">
+      <c r="A907" s="3">
+        <v>934</v>
+      </c>
+      <c r="B907" s="21">
+        <v>0</v>
+      </c>
+      <c r="C907" s="5">
+        <v>75004</v>
+      </c>
+      <c r="D907" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E907" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F907" s="3"/>
+      <c r="G907" s="3"/>
+      <c r="H907" s="3"/>
+      <c r="I907" s="20"/>
+    </row>
+    <row r="908" spans="1:9">
+      <c r="A908" s="6">
+        <v>935</v>
+      </c>
+      <c r="B908" s="21">
+        <v>0</v>
+      </c>
+      <c r="C908" s="5">
+        <v>75005</v>
+      </c>
+      <c r="D908" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E908" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F908" s="3"/>
+      <c r="G908" s="3"/>
+      <c r="H908" s="3"/>
+      <c r="I908" s="20"/>
+    </row>
+    <row r="909" spans="1:9">
+      <c r="A909" s="3">
+        <v>936</v>
+      </c>
+      <c r="B909" s="21">
+        <v>0</v>
+      </c>
+      <c r="C909" s="5">
+        <v>75006</v>
+      </c>
+      <c r="D909" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E909" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F909" s="3"/>
+      <c r="G909" s="3"/>
+      <c r="H909" s="3"/>
+      <c r="I909" s="20"/>
+    </row>
+    <row r="910" spans="1:9">
+      <c r="A910" s="6">
+        <v>937</v>
+      </c>
+      <c r="B910" s="21">
+        <v>0</v>
+      </c>
+      <c r="C910" s="5">
+        <v>75007</v>
+      </c>
+      <c r="D910" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E910" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F910" s="3"/>
+      <c r="G910" s="3"/>
+      <c r="H910" s="3"/>
+      <c r="I910" s="20"/>
+    </row>
+    <row r="911" spans="1:9">
+      <c r="A911" s="3">
+        <v>938</v>
+      </c>
+      <c r="B911" s="21">
+        <v>0</v>
+      </c>
+      <c r="C911" s="5">
+        <v>75008</v>
+      </c>
+      <c r="D911" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E911" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F911" s="3"/>
+      <c r="G911" s="3"/>
+      <c r="H911" s="3"/>
+      <c r="I911" s="20"/>
+    </row>
+    <row r="912" spans="1:9">
+      <c r="A912" s="6">
+        <v>939</v>
+      </c>
+      <c r="B912" s="21">
+        <v>0</v>
+      </c>
+      <c r="C912" s="5">
+        <v>75009</v>
+      </c>
+      <c r="D912" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E912" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F912" s="3"/>
+      <c r="G912" s="3"/>
+      <c r="H912" s="3"/>
+      <c r="I912" s="20"/>
+    </row>
+    <row r="913" spans="1:9">
+      <c r="A913" s="3">
+        <v>940</v>
+      </c>
+      <c r="B913" s="21">
+        <v>0</v>
+      </c>
+      <c r="C913" s="5">
+        <v>75010</v>
+      </c>
+      <c r="D913" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E913" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F913" s="3"/>
+      <c r="G913" s="3"/>
+      <c r="H913" s="3"/>
+      <c r="I913" s="20"/>
+    </row>
+    <row r="914" spans="1:9">
+      <c r="A914" s="6">
+        <v>941</v>
+      </c>
+      <c r="B914" s="21">
+        <v>0</v>
+      </c>
+      <c r="C914" s="5">
+        <v>75011</v>
+      </c>
+      <c r="D914" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E914" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F914" s="3"/>
+      <c r="G914" s="3"/>
+      <c r="H914" s="3"/>
+      <c r="I914" s="20"/>
+    </row>
+    <row r="915" spans="1:9">
+      <c r="A915" s="3">
+        <v>942</v>
+      </c>
+      <c r="B915" s="21">
+        <v>0</v>
+      </c>
+      <c r="C915" s="5">
+        <v>75012</v>
+      </c>
+      <c r="D915" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E915" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F915" s="3"/>
+      <c r="G915" s="3"/>
+      <c r="H915" s="3"/>
+      <c r="I915" s="20"/>
+    </row>
+    <row r="916" spans="1:9">
+      <c r="A916" s="6">
+        <v>943</v>
+      </c>
+      <c r="B916" s="21">
+        <v>0</v>
+      </c>
+      <c r="C916" s="5">
+        <v>75013</v>
+      </c>
+      <c r="D916" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E916" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F916" s="3"/>
+      <c r="G916" s="3"/>
+      <c r="H916" s="3"/>
+      <c r="I916" s="20"/>
+    </row>
+    <row r="917" spans="1:9">
+      <c r="A917" s="3">
+        <v>944</v>
+      </c>
+      <c r="B917" s="21">
+        <v>0</v>
+      </c>
+      <c r="C917" s="5">
+        <v>75014</v>
+      </c>
+      <c r="D917" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E917" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F917" s="3"/>
+      <c r="G917" s="3"/>
+      <c r="H917" s="3"/>
+      <c r="I917" s="20"/>
+    </row>
+    <row r="918" spans="1:9">
+      <c r="A918" s="6">
+        <v>945</v>
+      </c>
+      <c r="B918" s="21">
+        <v>0</v>
+      </c>
+      <c r="C918" s="5">
+        <v>75015</v>
+      </c>
+      <c r="D918" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E918" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F918" s="3"/>
+      <c r="G918" s="3"/>
+      <c r="H918" s="3"/>
+      <c r="I918" s="20"/>
+    </row>
+    <row r="919" spans="1:9">
+      <c r="A919" s="3">
+        <v>946</v>
+      </c>
+      <c r="B919" s="21">
+        <v>0</v>
+      </c>
+      <c r="C919" s="5">
+        <v>75016</v>
+      </c>
+      <c r="D919" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E919" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F919" s="3"/>
+      <c r="G919" s="3"/>
+      <c r="H919" s="3"/>
+      <c r="I919" s="20"/>
+    </row>
+    <row r="920" spans="1:9">
+      <c r="A920" s="6">
+        <v>947</v>
+      </c>
+      <c r="B920" s="21">
+        <v>0</v>
+      </c>
+      <c r="C920" s="5">
+        <v>75017</v>
+      </c>
+      <c r="D920" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E920" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F920" s="3"/>
+      <c r="G920" s="3"/>
+      <c r="H920" s="3"/>
+      <c r="I920" s="20"/>
+    </row>
+    <row r="921" spans="1:9">
+      <c r="A921" s="3">
+        <v>948</v>
+      </c>
+      <c r="B921" s="21">
+        <v>0</v>
+      </c>
+      <c r="C921" s="5">
+        <v>75018</v>
+      </c>
+      <c r="D921" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E921" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F921" s="3"/>
+      <c r="G921" s="3"/>
+      <c r="H921" s="3"/>
+      <c r="I921" s="20"/>
+    </row>
+    <row r="922" spans="1:9">
+      <c r="A922" s="6">
+        <v>949</v>
+      </c>
+      <c r="B922" s="21">
+        <v>0</v>
+      </c>
+      <c r="C922" s="5">
+        <v>75019</v>
+      </c>
+      <c r="D922" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E922" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F922" s="3"/>
+      <c r="G922" s="3"/>
+      <c r="H922" s="3"/>
+      <c r="I922" s="20"/>
+    </row>
+    <row r="923" spans="1:9">
+      <c r="A923" s="3">
+        <v>950</v>
+      </c>
+      <c r="B923" s="21">
+        <v>0</v>
+      </c>
+      <c r="C923" s="5">
+        <v>75020</v>
+      </c>
+      <c r="D923" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E923" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F923" s="3"/>
+      <c r="G923" s="3"/>
+      <c r="H923" s="3"/>
+      <c r="I923" s="20"/>
+    </row>
+    <row r="924" spans="1:9">
+      <c r="A924" s="6">
+        <v>951</v>
+      </c>
+      <c r="B924" s="21">
+        <v>0</v>
+      </c>
+      <c r="C924" s="5">
+        <v>75021</v>
+      </c>
+      <c r="D924" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E924" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F924" s="3"/>
+      <c r="G924" s="3"/>
+      <c r="H924" s="3"/>
+      <c r="I924" s="20"/>
+    </row>
+    <row r="925" spans="1:9">
+      <c r="A925" s="3">
+        <v>952</v>
+      </c>
+      <c r="B925" s="21">
+        <v>0</v>
+      </c>
+      <c r="C925" s="5">
+        <v>75022</v>
+      </c>
+      <c r="D925" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E925" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F925" s="3"/>
+      <c r="G925" s="3"/>
+      <c r="H925" s="3"/>
+      <c r="I925" s="20"/>
+    </row>
+    <row r="926" spans="1:9">
+      <c r="A926" s="6">
+        <v>953</v>
+      </c>
+      <c r="B926" s="21">
+        <v>0</v>
+      </c>
+      <c r="C926" s="5">
+        <v>75023</v>
+      </c>
+      <c r="D926" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E926" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F926" s="3"/>
+      <c r="G926" s="3"/>
+      <c r="H926" s="3"/>
+      <c r="I926" s="20"/>
+    </row>
+    <row r="927" spans="1:9">
+      <c r="A927" s="3">
+        <v>954</v>
+      </c>
+      <c r="B927" s="21">
+        <v>0</v>
+      </c>
+      <c r="C927" s="5">
+        <v>75024</v>
+      </c>
+      <c r="D927" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E927" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F927" s="3"/>
+      <c r="G927" s="3"/>
+      <c r="H927" s="3"/>
+      <c r="I927" s="20"/>
+    </row>
+    <row r="928" spans="1:9">
+      <c r="A928" s="6">
+        <v>955</v>
+      </c>
+      <c r="B928" s="21">
+        <v>0</v>
+      </c>
+      <c r="C928" s="5">
+        <v>75025</v>
+      </c>
+      <c r="D928" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E928" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F928" s="3"/>
+      <c r="G928" s="3"/>
+      <c r="H928" s="3"/>
+      <c r="I928" s="20"/>
+    </row>
+    <row r="929" spans="1:9">
+      <c r="A929" s="3">
+        <v>956</v>
+      </c>
+      <c r="B929" s="21">
+        <v>0</v>
+      </c>
+      <c r="C929" s="5">
+        <v>75026</v>
+      </c>
+      <c r="D929" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E929" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F929" s="3"/>
+      <c r="G929" s="3"/>
+      <c r="H929" s="3"/>
+      <c r="I929" s="20"/>
+    </row>
+    <row r="930" spans="1:9">
+      <c r="A930" s="6">
+        <v>957</v>
+      </c>
+      <c r="B930" s="21">
+        <v>0</v>
+      </c>
+      <c r="C930" s="5">
+        <v>75027</v>
+      </c>
+      <c r="D930" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E930" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F930" s="3"/>
+      <c r="G930" s="3"/>
+      <c r="H930" s="3"/>
+      <c r="I930" s="20"/>
+    </row>
+    <row r="931" spans="1:9">
+      <c r="A931" s="3">
+        <v>958</v>
+      </c>
+      <c r="B931" s="21">
+        <v>0</v>
+      </c>
+      <c r="C931" s="5">
+        <v>75028</v>
+      </c>
+      <c r="D931" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E931" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F931" s="3"/>
+      <c r="G931" s="3"/>
+      <c r="H931" s="3"/>
+      <c r="I931" s="20"/>
+    </row>
+    <row r="932" spans="1:9">
+      <c r="A932" s="6">
+        <v>959</v>
+      </c>
+      <c r="B932" s="21">
+        <v>0</v>
+      </c>
+      <c r="C932" s="5">
+        <v>75029</v>
+      </c>
+      <c r="D932" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E932" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F932" s="3"/>
+      <c r="G932" s="3"/>
+      <c r="H932" s="3"/>
+      <c r="I932" s="20"/>
+    </row>
+    <row r="933" spans="1:9">
+      <c r="A933" s="3">
+        <v>960</v>
+      </c>
+      <c r="B933" s="21">
+        <v>0</v>
+      </c>
+      <c r="C933" s="5">
+        <v>75030</v>
+      </c>
+      <c r="D933" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E933" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F933" s="3"/>
+      <c r="G933" s="3"/>
+      <c r="H933" s="3"/>
+      <c r="I933" s="20"/>
+    </row>
+    <row r="934" spans="1:9">
+      <c r="A934" s="6">
+        <v>961</v>
+      </c>
+      <c r="B934" s="21">
+        <v>0</v>
+      </c>
+      <c r="C934" s="5">
+        <v>75031</v>
+      </c>
+      <c r="D934" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E934" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F934" s="3"/>
+      <c r="G934" s="3"/>
+      <c r="H934" s="3"/>
+      <c r="I934" s="20"/>
+    </row>
+    <row r="935" spans="1:9">
+      <c r="A935" s="3">
+        <v>962</v>
+      </c>
+      <c r="B935" s="21">
+        <v>0</v>
+      </c>
+      <c r="C935" s="5">
+        <v>75032</v>
+      </c>
+      <c r="D935" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E935" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F935" s="3"/>
+      <c r="G935" s="3"/>
+      <c r="H935" s="3"/>
+      <c r="I935" s="20"/>
+    </row>
+    <row r="936" spans="1:9">
+      <c r="A936" s="6">
+        <v>963</v>
+      </c>
+      <c r="B936" s="21">
+        <v>0</v>
+      </c>
+      <c r="C936" s="5">
+        <v>75033</v>
+      </c>
+      <c r="D936" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E936" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F936" s="3"/>
+      <c r="G936" s="3"/>
+      <c r="H936" s="3"/>
+      <c r="I936" s="20"/>
+    </row>
+    <row r="937" spans="1:9">
+      <c r="A937" s="3">
+        <v>964</v>
+      </c>
+      <c r="B937" s="21">
+        <v>0</v>
+      </c>
+      <c r="C937" s="5">
+        <v>75034</v>
+      </c>
+      <c r="D937" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E937" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F937" s="3"/>
+      <c r="G937" s="3"/>
+      <c r="H937" s="3"/>
+      <c r="I937" s="20"/>
+    </row>
+    <row r="938" spans="1:9">
+      <c r="A938" s="6">
+        <v>965</v>
+      </c>
+      <c r="B938" s="21">
+        <v>0</v>
+      </c>
+      <c r="C938" s="5">
+        <v>75035</v>
+      </c>
+      <c r="D938" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E938" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F938" s="3"/>
+      <c r="G938" s="3"/>
+      <c r="H938" s="3"/>
+      <c r="I938" s="20"/>
+    </row>
+    <row r="939" spans="1:9">
+      <c r="A939" s="3">
+        <v>966</v>
+      </c>
+      <c r="B939" s="21">
+        <v>0</v>
+      </c>
+      <c r="C939" s="5">
+        <v>75036</v>
+      </c>
+      <c r="D939" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E939" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F939" s="3"/>
+      <c r="G939" s="3"/>
+      <c r="H939" s="3"/>
+      <c r="I939" s="20"/>
+    </row>
+    <row r="940" spans="1:9">
+      <c r="A940" s="6">
+        <v>967</v>
+      </c>
+      <c r="B940" s="21">
+        <v>0</v>
+      </c>
+      <c r="C940" s="5">
+        <v>75037</v>
+      </c>
+      <c r="D940" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E940" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F940" s="3"/>
+      <c r="G940" s="3"/>
+      <c r="H940" s="3"/>
+      <c r="I940" s="20"/>
+    </row>
+    <row r="941" spans="1:9">
+      <c r="A941" s="3">
+        <v>968</v>
+      </c>
+      <c r="B941" s="21">
+        <v>0</v>
+      </c>
+      <c r="C941" s="5">
+        <v>75038</v>
+      </c>
+      <c r="D941" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E941" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F941" s="3"/>
+      <c r="G941" s="3"/>
+      <c r="H941" s="3"/>
+      <c r="I941" s="20"/>
+    </row>
+    <row r="942" spans="1:9">
+      <c r="A942" s="6">
+        <v>969</v>
+      </c>
+      <c r="B942" s="21">
+        <v>0</v>
+      </c>
+      <c r="C942" s="5">
+        <v>75039</v>
+      </c>
+      <c r="D942" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E942" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F942" s="3"/>
+      <c r="G942" s="3"/>
+      <c r="H942" s="3"/>
+      <c r="I942" s="20"/>
+    </row>
+    <row r="943" spans="1:9">
+      <c r="A943" s="3">
+        <v>970</v>
+      </c>
+      <c r="B943" s="21">
+        <v>0</v>
+      </c>
+      <c r="C943" s="5">
+        <v>75040</v>
+      </c>
+      <c r="D943" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E943" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F943" s="3"/>
+      <c r="G943" s="3"/>
+      <c r="H943" s="3"/>
+      <c r="I943" s="20"/>
+    </row>
+    <row r="944" spans="1:9">
+      <c r="A944" s="6">
+        <v>971</v>
+      </c>
+      <c r="B944" s="21">
+        <v>0</v>
+      </c>
+      <c r="C944" s="5">
+        <v>75041</v>
+      </c>
+      <c r="D944" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E944" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F944" s="3"/>
+      <c r="G944" s="3"/>
+      <c r="H944" s="3"/>
+      <c r="I944" s="20"/>
+    </row>
+    <row r="945" spans="1:9">
+      <c r="A945" s="3">
+        <v>972</v>
+      </c>
+      <c r="B945" s="21">
+        <v>0</v>
+      </c>
+      <c r="C945" s="5">
+        <v>75042</v>
+      </c>
+      <c r="D945" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E945" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F945" s="3"/>
+      <c r="G945" s="3"/>
+      <c r="H945" s="3"/>
+      <c r="I945" s="20"/>
+    </row>
+    <row r="946" spans="1:9">
+      <c r="A946" s="6">
+        <v>973</v>
+      </c>
+      <c r="B946" s="21">
+        <v>0</v>
+      </c>
+      <c r="C946" s="5">
+        <v>75043</v>
+      </c>
+      <c r="D946" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E946" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F946" s="3"/>
+      <c r="G946" s="3"/>
+      <c r="H946" s="3"/>
+      <c r="I946" s="20"/>
+    </row>
+    <row r="947" spans="1:9">
+      <c r="A947" s="3">
+        <v>974</v>
+      </c>
+      <c r="B947" s="21">
+        <v>0</v>
+      </c>
+      <c r="C947" s="5">
+        <v>75044</v>
+      </c>
+      <c r="D947" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E947" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F947" s="3"/>
+      <c r="G947" s="3"/>
+      <c r="H947" s="3"/>
+      <c r="I947" s="20"/>
+    </row>
+    <row r="948" spans="1:9">
+      <c r="A948" s="6">
+        <v>975</v>
+      </c>
+      <c r="B948" s="21">
+        <v>0</v>
+      </c>
+      <c r="C948" s="5">
+        <v>75045</v>
+      </c>
+      <c r="D948" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E948" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F948" s="3"/>
+      <c r="G948" s="3"/>
+      <c r="H948" s="3"/>
+      <c r="I948" s="20"/>
+    </row>
+    <row r="949" spans="1:9">
+      <c r="A949" s="3">
+        <v>976</v>
+      </c>
+      <c r="B949" s="21">
+        <v>0</v>
+      </c>
+      <c r="C949" s="5">
+        <v>75046</v>
+      </c>
+      <c r="D949" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E949" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F949" s="3"/>
+      <c r="G949" s="3"/>
+      <c r="H949" s="3"/>
+      <c r="I949" s="20"/>
+    </row>
+    <row r="950" spans="1:9">
+      <c r="A950" s="6">
+        <v>977</v>
+      </c>
+      <c r="B950" s="21">
+        <v>0</v>
+      </c>
+      <c r="C950" s="5">
+        <v>75047</v>
+      </c>
+      <c r="D950" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E950" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F950" s="3"/>
+      <c r="G950" s="3"/>
+      <c r="H950" s="3"/>
+      <c r="I950" s="20"/>
+    </row>
+    <row r="951" spans="1:9">
+      <c r="A951" s="3">
+        <v>978</v>
+      </c>
+      <c r="B951" s="21">
+        <v>0</v>
+      </c>
+      <c r="C951" s="5">
+        <v>75048</v>
+      </c>
+      <c r="D951" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E951" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F951" s="3"/>
+      <c r="G951" s="3"/>
+      <c r="H951" s="3"/>
+      <c r="I951" s="20"/>
+    </row>
+    <row r="952" spans="1:9">
+      <c r="A952" s="6">
+        <v>979</v>
+      </c>
+      <c r="B952" s="21">
+        <v>0</v>
+      </c>
+      <c r="C952" s="5">
+        <v>75049</v>
+      </c>
+      <c r="D952" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E952" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F952" s="3"/>
+      <c r="G952" s="3"/>
+      <c r="H952" s="3"/>
+      <c r="I952" s="20"/>
+    </row>
+    <row r="953" spans="1:9">
+      <c r="A953" s="3">
+        <v>980</v>
+      </c>
+      <c r="B953" s="21">
+        <v>0</v>
+      </c>
+      <c r="C953" s="5">
+        <v>75050</v>
+      </c>
+      <c r="D953" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E953" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F953" s="3"/>
+      <c r="G953" s="3"/>
+      <c r="H953" s="3"/>
+      <c r="I953" s="20"/>
+    </row>
+    <row r="954" spans="1:9">
+      <c r="A954" s="6">
+        <v>981</v>
+      </c>
+      <c r="B954" s="21">
+        <v>0</v>
+      </c>
+      <c r="C954" s="5">
+        <v>75051</v>
+      </c>
+      <c r="D954" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E954" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F954" s="3"/>
+      <c r="G954" s="3"/>
+      <c r="H954" s="3"/>
+      <c r="I954" s="20"/>
+    </row>
+    <row r="955" spans="1:9">
+      <c r="A955" s="3">
+        <v>982</v>
+      </c>
+      <c r="B955" s="21">
+        <v>0</v>
+      </c>
+      <c r="C955" s="5">
+        <v>75052</v>
+      </c>
+      <c r="D955" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E955" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F955" s="3"/>
+      <c r="G955" s="3"/>
+      <c r="H955" s="3"/>
+      <c r="I955" s="20"/>
+    </row>
+    <row r="956" spans="1:9">
+      <c r="A956" s="6">
+        <v>983</v>
+      </c>
+      <c r="B956" s="21">
+        <v>0</v>
+      </c>
+      <c r="C956" s="5">
+        <v>75053</v>
+      </c>
+      <c r="D956" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E956" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F956" s="3"/>
+      <c r="G956" s="3"/>
+      <c r="H956" s="3"/>
+      <c r="I956" s="20"/>
+    </row>
+    <row r="957" spans="1:9">
+      <c r="A957" s="3">
+        <v>984</v>
+      </c>
+      <c r="B957" s="21">
+        <v>0</v>
+      </c>
+      <c r="C957" s="5">
+        <v>75054</v>
+      </c>
+      <c r="D957" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E957" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F957" s="3"/>
+      <c r="G957" s="3"/>
+      <c r="H957" s="3"/>
+      <c r="I957" s="20"/>
+    </row>
+    <row r="958" spans="1:9">
+      <c r="A958" s="6">
+        <v>985</v>
+      </c>
+      <c r="B958" s="21">
+        <v>0</v>
+      </c>
+      <c r="C958" s="5">
+        <v>75055</v>
+      </c>
+      <c r="D958" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E958" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F958" s="3"/>
+      <c r="G958" s="3"/>
+      <c r="H958" s="3"/>
+      <c r="I958" s="20"/>
+    </row>
+    <row r="959" spans="1:9">
+      <c r="A959" s="3">
+        <v>986</v>
+      </c>
+      <c r="B959" s="21">
+        <v>0</v>
+      </c>
+      <c r="C959" s="5">
+        <v>75056</v>
+      </c>
+      <c r="D959" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E959" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F959" s="3"/>
+      <c r="G959" s="3"/>
+      <c r="H959" s="3"/>
+      <c r="I959" s="20"/>
+    </row>
+    <row r="960" spans="1:9">
+      <c r="A960" s="6">
+        <v>987</v>
+      </c>
+      <c r="B960" s="21">
+        <v>0</v>
+      </c>
+      <c r="C960" s="5">
+        <v>75057</v>
+      </c>
+      <c r="D960" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E960" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F960" s="3"/>
+      <c r="G960" s="3"/>
+      <c r="H960" s="3"/>
+      <c r="I960" s="20"/>
+    </row>
+    <row r="961" spans="1:9">
+      <c r="A961" s="3">
+        <v>988</v>
+      </c>
+      <c r="B961" s="21">
+        <v>0</v>
+      </c>
+      <c r="C961" s="5">
+        <v>75058</v>
+      </c>
+      <c r="D961" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E961" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F961" s="3"/>
+      <c r="G961" s="3"/>
+      <c r="H961" s="3"/>
+      <c r="I961" s="20"/>
+    </row>
+    <row r="962" spans="1:9">
+      <c r="A962" s="6">
+        <v>989</v>
+      </c>
+      <c r="B962" s="21">
+        <v>0</v>
+      </c>
+      <c r="C962" s="5">
+        <v>75059</v>
+      </c>
+      <c r="D962" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E962" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F962" s="3"/>
+      <c r="G962" s="3"/>
+      <c r="H962" s="3"/>
+      <c r="I962" s="20"/>
+    </row>
+    <row r="963" spans="1:9">
+      <c r="A963" s="3">
+        <v>990</v>
+      </c>
+      <c r="B963" s="21">
+        <v>0</v>
+      </c>
+      <c r="C963" s="5">
+        <v>75060</v>
+      </c>
+      <c r="D963" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E963" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F963" s="3"/>
+      <c r="G963" s="3"/>
+      <c r="H963" s="3"/>
+      <c r="I963" s="20"/>
+    </row>
+    <row r="964" spans="1:9">
+      <c r="A964" s="6">
+        <v>991</v>
+      </c>
+      <c r="B964" s="21">
+        <v>0</v>
+      </c>
+      <c r="C964" s="5">
+        <v>75061</v>
+      </c>
+      <c r="D964" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E964" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F964" s="3"/>
+      <c r="G964" s="3"/>
+      <c r="H964" s="3"/>
+      <c r="I964" s="20"/>
+    </row>
+    <row r="965" spans="1:9">
+      <c r="A965" s="3">
+        <v>992</v>
+      </c>
+      <c r="B965" s="21">
+        <v>0</v>
+      </c>
+      <c r="C965" s="5">
+        <v>75062</v>
+      </c>
+      <c r="D965" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E965" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F965" s="3"/>
+      <c r="G965" s="3"/>
+      <c r="H965" s="3"/>
+      <c r="I965" s="20"/>
+    </row>
+    <row r="966" spans="1:9">
+      <c r="A966" s="6">
+        <v>993</v>
+      </c>
+      <c r="B966" s="21">
+        <v>0</v>
+      </c>
+      <c r="C966" s="5">
+        <v>75063</v>
+      </c>
+      <c r="D966" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E966" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F966" s="3"/>
+      <c r="G966" s="3"/>
+      <c r="H966" s="3"/>
+      <c r="I966" s="20"/>
+    </row>
+    <row r="967" spans="1:9">
+      <c r="A967" s="3">
+        <v>994</v>
+      </c>
+      <c r="B967" s="21">
+        <v>0</v>
+      </c>
+      <c r="C967" s="5">
+        <v>75064</v>
+      </c>
+      <c r="D967" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E967" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F967" s="3"/>
+      <c r="G967" s="3"/>
+      <c r="H967" s="3"/>
+      <c r="I967" s="20"/>
+    </row>
+    <row r="968" spans="1:9">
+      <c r="A968" s="6">
+        <v>995</v>
+      </c>
+      <c r="B968" s="21">
+        <v>0</v>
+      </c>
+      <c r="C968" s="5">
+        <v>75065</v>
+      </c>
+      <c r="D968" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E968" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F968" s="3"/>
+      <c r="G968" s="3"/>
+      <c r="H968" s="3"/>
+      <c r="I968" s="20"/>
+    </row>
+    <row r="969" spans="1:9">
+      <c r="A969" s="3">
+        <v>996</v>
+      </c>
+      <c r="B969" s="21">
+        <v>0</v>
+      </c>
+      <c r="C969" s="5">
+        <v>75066</v>
+      </c>
+      <c r="D969" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E969" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F969" s="3"/>
+      <c r="G969" s="3"/>
+      <c r="H969" s="3"/>
+      <c r="I969" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
